--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-Poisson.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-Poisson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\TESIS\EJEMPLOS EN EXCEL\BONILLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853556CE-7AE9-46E0-B375-80EDCFA44615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65430267-9BF9-43EA-8265-A24230200128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{A0643D9A-EA08-4DFB-8B01-5AB6756513D9}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" xr2:uid="{A0643D9A-EA08-4DFB-8B01-5AB6756513D9}"/>
   </bookViews>
   <sheets>
     <sheet name="POISSON" sheetId="2" r:id="rId1"/>
@@ -3483,10 +3483,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3504,8 +3504,8 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="str" cm="1">
-        <f t="array" ref="D2:D6">_xll.R.MR_Poisson.C(DATOS!$B$9:$B$209,DATOS!$C$9:$D$209,$B$2,DATOS!E9:E209,B3,$B$3,,$B$5)</f>
-        <v>[1] Estimar Modelo de Regresi?n Poisson</v>
+        <f t="array" ref="D2:D17">_xll.R.MR_Poisson.C(DATOS!$B$9:$B$209,DATOS!$C$9:$D$209,$B$2,DATOS!E9:E209,B3,$B$3,,$B$5)</f>
+        <v>R4XCL_ModeloEstimado</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -3513,10 +3513,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>[2] Estimar [Y] (dentro de muestra)</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="str">
-        <v>[3] Estimar [Y] (fuera de muestra)</v>
+        <v>=============================================</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -3538,12 +3538,67 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>[4] Especificaci?n empleada</v>
+        <v xml:space="preserve">                      Dependent variable:    </v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" t="str">
-        <v>[5] Guardar Modelo Estimado en R</v>
+        <v xml:space="preserve">                  ---------------------------</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="str">
+        <v xml:space="preserve">                          num_awards         </v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="str">
+        <v>---------------------------------------------</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="str">
+        <v xml:space="preserve">prog                 0.123 (-0.197, 0.443)   </v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" t="str">
+        <v xml:space="preserve">math                0.086*** (0.067, 0.105)  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" t="str">
+        <v xml:space="preserve">Constant          -5.578*** (-6.905, -4.252) </v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="str">
+        <v>---------------------------------------------</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="str">
+        <v xml:space="preserve">Observations                  200            </v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="str">
+        <v xml:space="preserve">Log Likelihood             -189.753          </v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="str">
+        <v xml:space="preserve">Akaike Inf. Crit.           385.506          </v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="str">
+        <v>=============================================</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="str">
+        <v>Note:             *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</v>
       </c>
     </row>
   </sheetData>

--- a/EJEMPLOS EN EXCEL/BONILLA/R4XL-Poisson.xlsx
+++ b/EJEMPLOS EN EXCEL/BONILLA/R4XL-Poisson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\R4XCL\LIBRERIA\EJEMPLOS EN EXCEL\BONILLA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65430267-9BF9-43EA-8265-A24230200128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F0D0E-5F1D-4B6A-B67D-FF6CD1EF79E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-83" yWindow="0" windowWidth="14558" windowHeight="15563" xr2:uid="{A0643D9A-EA08-4DFB-8B01-5AB6756513D9}"/>
   </bookViews>
@@ -3485,8 +3485,8 @@
   </sheetPr>
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
